--- a/artfynd/A 62204-2019.xlsx
+++ b/artfynd/A 62204-2019.xlsx
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80491698</v>
+        <v>80491711</v>
       </c>
       <c r="B7" t="n">
-        <v>85703</v>
+        <v>89356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,38 +1268,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>510</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Digerbergskölen, Dlr</t>
+          <t>Storåsen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>413867.1595236084</v>
+        <v>414523.9239495115</v>
       </c>
       <c r="R7" t="n">
-        <v>6714888.805042132</v>
+        <v>6715218.994275672</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1342,11 +1342,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På stående död gran. Foto 6446 6447</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1373,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80491711</v>
+        <v>80491712</v>
       </c>
       <c r="B8" t="n">
-        <v>89356</v>
+        <v>78569</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1385,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1459,6 +1454,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1485,10 +1485,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80491699</v>
+        <v>80491718</v>
       </c>
       <c r="B9" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1501,21 +1501,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>413956.1199106898</v>
+        <v>414409.9917514602</v>
       </c>
       <c r="R9" t="n">
-        <v>6714961.947454292</v>
+        <v>6715193.167040655</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80491712</v>
+        <v>80491717</v>
       </c>
       <c r="B10" t="n">
-        <v>78569</v>
+        <v>5113</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1609,25 +1609,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>100526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>414523.9239495115</v>
+        <v>414421.0513945341</v>
       </c>
       <c r="R10" t="n">
-        <v>6715218.994275672</v>
+        <v>6715160.931214357</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1683,11 +1683,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>På björk</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1714,7 +1709,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80491718</v>
+        <v>80491710</v>
       </c>
       <c r="B11" t="n">
         <v>77506</v>
@@ -1754,10 +1749,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>414409.9917514602</v>
+        <v>414534.8153374467</v>
       </c>
       <c r="R11" t="n">
-        <v>6715193.167040655</v>
+        <v>6715221.195563911</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1800,6 +1795,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1826,10 +1826,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80491717</v>
+        <v>80491698</v>
       </c>
       <c r="B12" t="n">
-        <v>5113</v>
+        <v>85703</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1838,38 +1838,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100526</v>
+        <v>510</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Storåsen, Dlr</t>
+          <t>Digerbergskölen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>414421.0513945341</v>
+        <v>413867.1595236084</v>
       </c>
       <c r="R12" t="n">
-        <v>6715160.931214357</v>
+        <v>6714888.805042132</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1912,6 +1912,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På stående död gran. Foto 6446 6447</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1938,10 +1943,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80491710</v>
+        <v>80491699</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1954,21 +1959,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1978,10 +1983,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>414534.8153374467</v>
+        <v>413956.1199106898</v>
       </c>
       <c r="R13" t="n">
-        <v>6715221.195563911</v>
+        <v>6714961.947454292</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2024,11 +2029,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 62204-2019.xlsx
+++ b/artfynd/A 62204-2019.xlsx
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80491711</v>
+        <v>80491698</v>
       </c>
       <c r="B7" t="n">
-        <v>89356</v>
+        <v>85703</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,38 +1268,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>510</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Storåsen, Dlr</t>
+          <t>Digerbergskölen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>414523.9239495115</v>
+        <v>413867.1595236084</v>
       </c>
       <c r="R7" t="n">
-        <v>6715218.994275672</v>
+        <v>6714888.805042132</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1342,6 +1342,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På stående död gran. Foto 6446 6447</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1373,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80491712</v>
+        <v>80491711</v>
       </c>
       <c r="B8" t="n">
-        <v>78569</v>
+        <v>89356</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1385,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1454,11 +1459,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>På björk</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1485,10 +1485,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80491718</v>
+        <v>80491699</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1501,21 +1501,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>414409.9917514602</v>
+        <v>413956.1199106898</v>
       </c>
       <c r="R9" t="n">
-        <v>6715193.167040655</v>
+        <v>6714961.947454292</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80491717</v>
+        <v>80491712</v>
       </c>
       <c r="B10" t="n">
-        <v>5113</v>
+        <v>78569</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1609,25 +1609,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100526</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>414421.0513945341</v>
+        <v>414523.9239495115</v>
       </c>
       <c r="R10" t="n">
-        <v>6715160.931214357</v>
+        <v>6715218.994275672</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1683,6 +1683,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1709,7 +1714,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80491710</v>
+        <v>80491718</v>
       </c>
       <c r="B11" t="n">
         <v>77506</v>
@@ -1749,10 +1754,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>414534.8153374467</v>
+        <v>414409.9917514602</v>
       </c>
       <c r="R11" t="n">
-        <v>6715221.195563911</v>
+        <v>6715193.167040655</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1795,11 +1800,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1826,10 +1826,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80491698</v>
+        <v>80491717</v>
       </c>
       <c r="B12" t="n">
-        <v>85703</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1838,38 +1838,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>510</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Digerbergskölen, Dlr</t>
+          <t>Storåsen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>413867.1595236084</v>
+        <v>414421.0513945341</v>
       </c>
       <c r="R12" t="n">
-        <v>6714888.805042132</v>
+        <v>6715160.931214357</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1912,11 +1912,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På stående död gran. Foto 6446 6447</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1943,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80491699</v>
+        <v>80491710</v>
       </c>
       <c r="B13" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1959,21 +1954,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1983,10 +1978,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>413956.1199106898</v>
+        <v>414534.8153374467</v>
       </c>
       <c r="R13" t="n">
-        <v>6714961.947454292</v>
+        <v>6715221.195563911</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2029,6 +2024,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD13" t="b">
